--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2015.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2015.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.160519069149509</v>
+        <v>1.118515014648438</v>
       </c>
       <c r="B1">
-        <v>2.333627996252791</v>
+        <v>2.814093112945557</v>
       </c>
       <c r="C1">
-        <v>7.586697374053575</v>
+        <v>6.866245269775391</v>
       </c>
       <c r="D1">
-        <v>2.403830626073558</v>
+        <v>2.022721529006958</v>
       </c>
       <c r="E1">
-        <v>1.223937590246524</v>
+        <v>1.079953670501709</v>
       </c>
     </row>
   </sheetData>
